--- a/backend/data/resultados_evaluaciones.xlsx
+++ b/backend/data/resultados_evaluaciones.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
@@ -833,6 +833,62 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>2025-06-09 19:12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jesus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CampoEnum.cupiagua</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PEP-PRO-1141</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MANTENIMIENTO 4K Y 8K EN MOTORES SUPERIOR- COMPRESORES SUPERIOR - FLOREÑA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>SiNoEnum.si</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:00:29</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2025-06-17 20:00:29</t>
         </is>
       </c>
     </row>
@@ -847,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3092,6 +3148,206 @@
         </is>
       </c>
       <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>OptionEnum.B</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Durante el mantenimiento, detectas que un filtro de aire está cubierto de residuos. ¿Qué debes hacer?</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>OptionEnum.B</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Sumergir el filtro en agua y jabón</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Retirar y cambiar el filtro si es necesario</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>OptionEnum.C</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Al cambiar una válvula, se recomienda aflojar un prisionero. ¿Qué error común se debe evitar?</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>OptionEnum.C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cerrar el sistema antes de tiempo</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No aflojar el prisionero del separador</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>¿Cuál es el primer paso del procedimiento de prueba?</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>OptionEnum.C</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Revisar documentación</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Verificar condiciones iniciales</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -3108,7 +3364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3435,6 +3691,33 @@
         </is>
       </c>
       <c r="E12" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
@@ -3451,7 +3734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3617,8 +3900,20 @@
           <t>SiNoEnum.no</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AFD92702</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SiNoEnum.no</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
